--- a/similarities/split_global/harmonic_similarity_timestamps_198.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_198.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,710 +484,746 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
+          <t>isophonics_135</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_145</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['E', 'A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:19.400000', '0:00:44.180000')]</t>
+          <t>('0:00:14.450219', '0:00:23.088042')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:11.420000', '0:00:19.140000')]</t>
+          <t>('0:02:23.580000', '0:02:29.120000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=19.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=14.450219</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=11.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>schubert-winterreise_184</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>['G:min/D', 'D:(3,5,b7,b9)', 'G:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C:hdim7/D#', 'F:7', 'A#:min']]</t>
+          <t>['D:min', 'A:(3,5,b7,b9)', 'D:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:23.180000', '0:00:30.140000')]</t>
+          <t>('0:00:55.260000', '0:01:01')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:10.980000', '0:00:16.420000')]</t>
+          <t>('0:01:43', '0:02:02.840000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=23.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-184#t=55.26</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-165#t=10.98']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=103.0</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>schubert-winterreise_164</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['A:min', 'A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['C:min', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:03.101913', '0:00:07.754783')]</t>
+          <t>('0:00:46.900000', '0:00:59.640000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:02:04.920000', '0:02:08.840000')]</t>
+          <t>('0:00:25.880000', '0:00:33.500000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=3.101913']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=46.9</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=25.88</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>isophonics_125</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['A:7/3', 'G/3', 'G']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min'], ['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['D:7/C', 'C', 'C/G']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:01.540000', '0:00:06.680000'), ('0:00:09.780000', '0:00:14.360000')]</t>
+          <t>('0:01:07.905000', '0:01:12.107811')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:13.180000', '0:00:19.520000'), ('0:00:00.300000', '0:00:02.820000')]</t>
+          <t>('0:03:42.740000', '0:03:47.160000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=1.54', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=9.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-125#t=67.905</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=13.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=0.3']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=222.74</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>schubert-winterreise_22</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['A:min', 'D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:22.370000', '0:00:40.370000')]</t>
+          <t>('0:00:02.360000', '0:00:09.640000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:04:43.300000', '0:04:50.060000')]</t>
+          <t>('0:00:12.680000', '0:00:32.500000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=22.37']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=2.36</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=283.3']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=12.68</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj'], ['C:min', 'F:7/A', 'A#:maj']]</t>
+          <t>['F:7', 'Bb', 'Bb:7/3']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min', 'F:7/C', 'A#']]</t>
+          <t>['C:7', 'F:maj', 'F:7']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:00.580000', '0:00:08.960000'), ('0:00:34.240000', '0:00:40.760000')]</t>
+          <t>('0:00:10.080000', '0:00:11.390000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:04:14.260000', '0:04:20.200000'), ('0:00:37.740000', '0:00:40.640000')]</t>
+          <t>('0:01:13.740000', '0:01:27.340000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=0.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=34.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=10.08</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=254.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=37.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=73.74</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>isophonics_82</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
+          <t>('0:00:03.101913', '0:00:07.754783')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+          <t>('0:00:16.040000', '0:00:22.400000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=3.101913</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=16.04</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C'], ['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['Bb:7', 'Eb/5', 'Bb:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj', 'A:min'], ['E:7/A', 'A:min', 'D:min/A']]</t>
+          <t>['F:7/D#', 'A#:maj/D', 'F:maj/C']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:45.720000', '0:00:49.900000'), ('0:00:24.420000', '0:00:32.620000')]</t>
+          <t>('0:04:15.633000', '0:04:18.257000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:13.500000', '0:00:21.900000'), ('0:00:25.260000', '0:00:33.600000')]</t>
+          <t>('0:01:10.560000', '0:01:14.380000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=45.72', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=24.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=255.633</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=13.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=25.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=70.56</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>isophonics_217</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:00.580000', '0:00:08.960000')]</t>
+          <t>('0:00:03.826054', '0:00:14.054444')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:25.220000', '0:00:27.170000')]</t>
+          <t>('0:01:58.440000', '0:02:01.680000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=0.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=3.826054</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=118.44</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A/3', 'D', 'A'], ['E:7', 'A', 'B:min']]</t>
+          <t>['C:min', 'G:maj', 'C:min', 'G:maj', 'C:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj'], ['D:7', 'G:maj', 'A:min/C']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:04.250000', '0:00:09.179000'), ('0:00:22.369000', '0:00:29.182000')]</t>
+          <t>('0:00:07.960000', '0:00:18.500000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:16.040000', '0:00:22.400000'), ('0:00:23.380000', '0:00:27.640000')]</t>
+          <t>('0:00:01.260000', '0:00:07.700000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=22.369']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=7.96</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=16.04', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=23.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=1.26</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G']]</t>
+          <t>['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:46.932280', '0:00:55.860352')]</t>
+          <t>('0:00:21.280000', '0:00:49.280000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
+          <t>('0:02:00.400000', '0:02:03.780000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=46.93228']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=21.28</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=120.4</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>isophonics_128</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['Ab', 'Db/5', 'Ab', 'Db/5']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['C', 'F', 'C', 'F']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:08.240000', '0:00:13.460000'), ('0:01:06.520000', '0:01:10.140000')]</t>
+          <t>('0:04:21.828000', '0:04:33.028000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:22.500000', '0:01:30.740000'), ('0:00:55.680000', '0:01:02.280000')]</t>
+          <t>('0:00:10.634761', '0:00:19.597664')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=8.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=261.828</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=82.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=55.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-128#t=10.634761</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>isophonics_166</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min/G']]</t>
+          <t>['A', 'D', 'G']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>['G:maj/B', 'C:maj/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:09.600000', '0:00:13.300000')]</t>
+          <t>('0:00:51.473401', '0:01:00.146054')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:27.789047', '0:00:31.109501')]</t>
+          <t>('0:03:20.520000', '0:03:23.860000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=9.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-166#t=51.473401</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-255#t=27.789047']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=200.52</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>schubert-winterreise_152</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>schubert-winterreise_135</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G#:dim7', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['A:min/E', 'E:(3,5,b7,b9)', 'A:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E:dim7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:16.400000', '0:01:20.720000')]</t>
+          <t>('0:01:00.760000', '0:01:06.820000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:18.700000', '0:00:20.830000')]</t>
+          <t>('0:00:30.160000', '0:00:44.080000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=76.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=60.76</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=18.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-135#t=30.16</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_75</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>['G:hdim7/A#', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['A:hdim7/D#', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:07.600000', '0:00:13.860000')]</t>
+          <t>('0:00:23.080000', '0:00:29.900000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:18.640000', '0:00:28.900000')]</t>
+          <t>('0:01:41.180000', '0:01:53.780000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=7.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=23.08</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=18.64']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=101.18</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
